--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowWidth="23385" windowHeight="10410" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>group</t>
   </si>
@@ -151,16 +151,19 @@
     <t>2.1. Reason for not being visited</t>
   </si>
   <si>
-    <t>2.3. Motivo para não ter sido visitado</t>
+    <t>2.1. Motivo para não ter sido visitado</t>
   </si>
   <si>
     <t>reasonOther</t>
   </si>
   <si>
-    <t>2.3.1. Specify the reason for not being visited</t>
-  </si>
-  <si>
-    <t>2.3.1. Especifique o motivo para não ter sido visitado</t>
+    <t>2.2. Specify the reason for not being visited</t>
+  </si>
+  <si>
+    <t>2.2. Especifique o motivo para não ter sido visitado</t>
+  </si>
+  <si>
+    <t>${reason} = 'OTHER'</t>
   </si>
   <si>
     <t>collected</t>
@@ -175,7 +178,7 @@
     <t>3.1. Collected By Fieldworker</t>
   </si>
   <si>
-    <t>4.1. Códido do Inquiridor</t>
+    <t>3.1. Códido do Inquiridor</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -187,46 +190,82 @@
     <t>3.2. Collected Date</t>
   </si>
   <si>
-    <t>4.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>modules</t>
-  </si>
-  <si>
-    <t>Access Granted to Modules</t>
-  </si>
-  <si>
-    <t>Acesso permitido aos Módulos</t>
+    <t>3.2. Data da Visita</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>UNAVAILABLE_TODAY</t>
+  </si>
+  <si>
     <t>Not available today</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Não esta disponível hoje</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE_ROUND</t>
   </si>
   <si>
     <t xml:space="preserve">Not available this round (temporarily out of the area – away for school, work)  </t>
   </si>
   <si>
+    <t>Não esta disponível nesta ronda (temporariamente fora, pelos estudos, trabalho, etc)</t>
+  </si>
+  <si>
+    <t>UNWILLING</t>
+  </si>
+  <si>
     <t>Unwilling to participate this round</t>
   </si>
   <si>
+    <t>Não deseja participar nesta ronda</t>
+  </si>
+  <si>
+    <t>HOSPITALIZED</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hospitalized </t>
   </si>
   <si>
+    <t>Hospitalizado</t>
+  </si>
+  <si>
+    <t>RELOCATED</t>
+  </si>
+  <si>
     <t>Permanently relocated out of the study area</t>
   </si>
   <si>
+    <t>Emigrou para fora da area de estudo</t>
+  </si>
+  <si>
+    <t>WITHDREW</t>
+  </si>
+  <si>
     <t xml:space="preserve">Withdrew consent </t>
   </si>
   <si>
+    <t>Rejeitou/Retirou o consentimento</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dead  </t>
   </si>
   <si>
+    <t>Morto</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Outra</t>
   </si>
   <si>
     <t>form_id</t>
@@ -252,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -281,10 +320,101 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,9 +426,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,121 +463,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +497,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,48 +521,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,120 +672,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +689,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,17 +709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,22 +733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,155 +771,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,9 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1239,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="B8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1301,7 +1337,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1336,7 +1372,7 @@
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
@@ -1354,8 +1390,8 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" t="b">
         <v>1</v>
       </c>
@@ -1379,8 +1415,8 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" t="b">
         <v>1</v>
       </c>
@@ -1404,8 +1440,8 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -1413,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
         <v>29</v>
@@ -1421,7 +1457,7 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H6" t="s">
@@ -1430,16 +1466,13 @@
       <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
         <v>34</v>
@@ -1453,35 +1486,36 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" t="b">
         <v>1</v>
       </c>
@@ -1491,22 +1525,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -1514,45 +1548,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:1">
       <c r="A13" s="1"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1"/>
@@ -1586,9 +1598,6 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1603,15 +1612,15 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="66.8380952380952" customWidth="1"/>
-    <col min="4" max="4" width="18.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="54.0571428571429" customWidth="1"/>
+    <col min="4" max="4" width="79.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1620,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1636,14 +1645,14 @@
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1651,87 +1660,101 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4">
-        <v>4</v>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4">
-        <v>6</v>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4">
-        <v>7</v>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4">
-        <v>66</v>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
@@ -1776,24 +1799,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23385" windowHeight="10410" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -292,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -336,14 +336,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,7 +390,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +435,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -381,14 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -397,75 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,187 +491,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +689,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,11 +733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,17 +763,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,171 +782,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="B8:I8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1491,7 +1491,6 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="M7"/>
       <c r="N7" t="s">
         <v>37</v>
       </c>

--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowHeight="13605" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>paul:</t>
         </r>
@@ -36,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 The option is readonly, not choosable.
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>group</t>
   </si>
@@ -79,6 +79,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -112,22 +115,31 @@
     <t>1.0. Código da Visita</t>
   </si>
   <si>
+    <t>1.0. Code de la visite</t>
+  </si>
+  <si>
+    <t>memberCode</t>
+  </si>
+  <si>
+    <t>1.1. Member's Code</t>
+  </si>
+  <si>
+    <t>1.1. Código do Membro</t>
+  </si>
+  <si>
+    <t>1.1. Code du membre</t>
+  </si>
+  <si>
     <t>householdCode</t>
   </si>
   <si>
-    <t>1.1. Household Code</t>
-  </si>
-  <si>
-    <t>1.1. Código do Agregado</t>
-  </si>
-  <si>
-    <t>memberCode</t>
-  </si>
-  <si>
-    <t>1.2. Member's Code</t>
-  </si>
-  <si>
-    <t>1.2. Código do Membro</t>
+    <t>1.2. Household Code</t>
+  </si>
+  <si>
+    <t>1.2. Código do Agregado</t>
+  </si>
+  <si>
+    <t>1.2. Code du ménage</t>
   </si>
   <si>
     <t>memberName</t>
@@ -139,6 +151,9 @@
     <t>1.3. Nome da Membro</t>
   </si>
   <si>
+    <t>1.3. Nom du membre</t>
+  </si>
+  <si>
     <t>reason</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>2.1. Motivo para não ter sido visitado</t>
   </si>
   <si>
+    <t>2.1. Raison pour laquelle la visite n'a pas eu lieu</t>
+  </si>
+  <si>
     <t>reasonOther</t>
   </si>
   <si>
@@ -163,6 +181,9 @@
     <t>2.2. Especifique o motivo para não ter sido visitado</t>
   </si>
   <si>
+    <t>2.2. Veuillez préciser la raison pour laquelle vous n'avez pas été visité.</t>
+  </si>
+  <si>
     <t>${reason} = 'OTHER'</t>
   </si>
   <si>
@@ -175,10 +196,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>3.1. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>3.1. Códido do Inquiridor</t>
+    <t>3.1. Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>3.1. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>3.1. Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -187,12 +211,15 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>3.2. Collected Date</t>
+    <t>3.2. Collected date</t>
   </si>
   <si>
     <t>3.2. Data da Visita</t>
   </si>
   <si>
+    <t>3.2. Date de la visite</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -205,6 +232,9 @@
     <t>Não esta disponível hoje</t>
   </si>
   <si>
+    <t>Non disponible aujourd'hui</t>
+  </si>
+  <si>
     <t>UNAVAILABLE_ROUND</t>
   </si>
   <si>
@@ -214,6 +244,9 @@
     <t>Não esta disponível nesta ronda (temporariamente fora, pelos estudos, trabalho, etc)</t>
   </si>
   <si>
+    <t>Non disponible pour ce tour (temporairement absent, en raison d'études, de travail, ect.)</t>
+  </si>
+  <si>
     <t>UNWILLING</t>
   </si>
   <si>
@@ -223,6 +256,9 @@
     <t>Não deseja participar nesta ronda</t>
   </si>
   <si>
+    <t>Ne souhaite pas participer à ce tour</t>
+  </si>
+  <si>
     <t>HOSPITALIZED</t>
   </si>
   <si>
@@ -232,13 +268,19 @@
     <t>Hospitalizado</t>
   </si>
   <si>
+    <t>Hospitalisé</t>
+  </si>
+  <si>
     <t>RELOCATED</t>
   </si>
   <si>
     <t>Permanently relocated out of the study area</t>
   </si>
   <si>
-    <t>Emigrou para fora da area de estudo</t>
+    <t>Emigrou para fora da área de estudo</t>
+  </si>
+  <si>
+    <t>A émigré en dehors de la zone d'étude</t>
   </si>
   <si>
     <t>WITHDREW</t>
@@ -250,6 +292,9 @@
     <t>Rejeitou/Retirou o consentimento</t>
   </si>
   <si>
+    <t>Rejeté/retiré le consentement</t>
+  </si>
+  <si>
     <t>DEAD</t>
   </si>
   <si>
@@ -259,6 +304,9 @@
     <t>Morto</t>
   </si>
   <si>
+    <t>Décédé</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -268,6 +316,9 @@
     <t>Outra</t>
   </si>
   <si>
+    <t>Autre</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -277,6 +328,9 @@
     <t>form_name::pt</t>
   </si>
   <si>
+    <t>form_name::fr</t>
+  </si>
+  <si>
     <t>rawIncompleteVisit</t>
   </si>
   <si>
@@ -284,6 +338,9 @@
   </si>
   <si>
     <t>Visita Incompleta</t>
+  </si>
+  <si>
+    <t>Formulaire de Visite Incomplet</t>
   </si>
 </sst>
 </file>
@@ -291,12 +348,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -306,7 +363,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -315,9 +372,147 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -328,161 +523,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,37 +543,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,55 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,95 +729,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -714,21 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,177 +840,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1275,29 +1355,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="12.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
+    <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="50.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="13.8761904761905" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="16.5714285714286" customWidth="1"/>
+    <col min="9" max="10" width="50.1809523809524" customWidth="1"/>
+    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
+    <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
+    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1405,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1337,230 +1417,255 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="8" t="s">
-        <v>18</v>
+      <c r="H2" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" t="b">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" t="b">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1"/>
@@ -1608,27 +1713,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="54.0571428571429" customWidth="1"/>
-    <col min="4" max="4" width="79.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="21.7238095238095" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="79.4571428571429" customWidth="1"/>
+    <col min="5" max="5" width="48.3619047619048" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1636,142 +1741,166 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1783,39 +1912,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="27.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="18.1809523809524" customWidth="1"/>
+    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="27.8190476190476" customWidth="1"/>
+    <col min="4" max="4" width="30.5428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13605" tabRatio="500"/>
+    <workbookView windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>group</t>
   </si>
@@ -100,6 +100,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -203,6 +206,27 @@
   </si>
   <si>
     <t>3.1. Code de l'enquêteur</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
+  </si>
+  <si>
+    <t>collectedHouseholdId</t>
+  </si>
+  <si>
+    <t>Collected Household Id</t>
+  </si>
+  <si>
+    <t>collectedMemberId</t>
+  </si>
+  <si>
+    <t>Collected Member Id</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -348,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -372,6 +396,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -379,6 +411,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -386,8 +449,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,107 +518,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,14 +542,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,19 +573,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,31 +705,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,127 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,11 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,7 +801,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,21 +832,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,155 +870,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1031,15 +1055,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1355,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1375,9 +1407,10 @@
     <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
     <col min="15" max="15" width="16.5428571428571" customWidth="1"/>
+    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1438,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1420,35 +1453,38 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1458,29 +1494,29 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="14"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1491,22 +1527,22 @@
     <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1517,24 +1553,24 @@
     <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1545,25 +1581,25 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1571,52 +1607,52 @@
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1624,57 +1660,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="9" spans="1:17">
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="E9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="I9" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" t="b">
+      <c r="E10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N9" t="b">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:1">
+    <row r="11" spans="1:17">
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>
@@ -1702,6 +1834,15 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1733,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1750,138 +1891,138 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1928,30 +2069,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -199,13 +199,28 @@
     <t>username</t>
   </si>
   <si>
-    <t>3.1. Collected by fieldworker</t>
-  </si>
-  <si>
-    <t>3.1. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>3.1. Code de l'enquêteur</t>
+    <t>Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'enquêteur</t>
+  </si>
+  <si>
+    <t>collectedDate</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Collected date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de la visite</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -227,21 +242,6 @@
   </si>
   <si>
     <t>Collected Member Id</t>
-  </si>
-  <si>
-    <t>collectedDate</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>3.2. Collected date</t>
-  </si>
-  <si>
-    <t>3.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>3.2. Date de la visite</t>
   </si>
   <si>
     <t>value</t>
@@ -372,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -394,6 +394,111 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -404,8 +509,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -414,134 +542,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,61 +573,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,19 +723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,96 +753,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -782,16 +782,78 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -806,17 +868,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +903,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -856,178 +927,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1052,26 +1114,38 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1390,7 +1464,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M11"/>
+      <selection activeCell="A8" sqref="$A8:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1438,7 +1512,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1453,13 +1527,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1469,15 +1543,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1494,7 +1568,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1515,8 +1589,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1541,8 +1615,8 @@
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1569,8 +1643,8 @@
       <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1598,8 +1672,8 @@
       <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1618,11 +1692,11 @@
       <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1630,183 +1704,183 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="10" customFormat="1" spans="1:14">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" t="b">
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="N8" t="b">
+      <c r="N8" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:14">
+      <c r="A9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>54</v>
+      <c r="I9" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="b">
+        <v>56</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12" t="b">
+      <c r="N9" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="b">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12" t="b">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="11" t="s">
+    <row r="12" s="12" customFormat="1" spans="1:17">
+      <c r="A12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" t="b">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="N12" t="b">
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>

--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="25740" windowHeight="9840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -372,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -396,6 +396,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -404,9 +412,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,6 +434,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -427,7 +480,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -435,14 +510,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,92 +539,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,13 +573,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,67 +663,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,43 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,49 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +844,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -863,16 +872,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,41 +907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -941,151 +921,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1930,14 +1930,14 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
-    <col min="2" max="2" width="21.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="79.4571428571429" customWidth="1"/>
     <col min="5" max="5" width="48.3619047619048" customWidth="1"/>

--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="9840" tabRatio="500"/>
+    <workbookView windowWidth="18195" windowHeight="6345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
     <t>UNAVAILABLE_ROUND</t>
   </si>
   <si>
-    <t xml:space="preserve">Not available this round (temporarily out of the area – away for school, work)  </t>
+    <t>Not available this round (temporarily out of the area – away for school, work)</t>
   </si>
   <si>
     <t>Não esta disponível nesta ronda (temporariamente fora, pelos estudos, trabalho, etc)</t>
@@ -286,7 +286,7 @@
     <t>HOSPITALIZED</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospitalized </t>
+    <t>Hospitalized</t>
   </si>
   <si>
     <t>Hospitalizado</t>
@@ -310,7 +310,7 @@
     <t>WITHDREW</t>
   </si>
   <si>
-    <t xml:space="preserve">Withdrew consent </t>
+    <t>Withdrew consent</t>
   </si>
   <si>
     <t>Rejeitou/Retirou o consentimento</t>
@@ -322,7 +322,7 @@
     <t>DEAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Dead  </t>
+    <t>Dead</t>
   </si>
   <si>
     <t>Morto</t>
@@ -372,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -412,6 +412,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -427,6 +449,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -434,15 +494,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,24 +517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,29 +533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,29 +542,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,187 +573,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,8 +847,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,21 +897,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,154 +941,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,8 +1463,8 @@
   <sheetPr/>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1930,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1970,7 +1970,7 @@
       <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1987,7 +1987,7 @@
       <c r="B3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2004,7 +2004,7 @@
       <c r="B4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2021,7 +2021,7 @@
       <c r="B5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2038,7 +2038,7 @@
       <c r="B6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2055,7 +2055,7 @@
       <c r="B7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2072,7 +2072,7 @@
       <c r="B8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2089,7 +2089,7 @@
       <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="6" t="s">

--- a/app/src/main/res/raw/incomplete_form.xlsx
+++ b/app/src/main/res/raw/incomplete_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="6345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>memberCode</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code du membre</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የአባል ኮድ  </t>
+  </si>
+  <si>
     <t>householdCode</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>1.2. Code du ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>memberName</t>
   </si>
   <si>
@@ -157,6 +169,9 @@
     <t>1.3. Nom du membre</t>
   </si>
   <si>
+    <t xml:space="preserve">1.3. የአባል ስም  </t>
+  </si>
+  <si>
     <t>reason</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>2.1. Raison pour laquelle la visite n'a pas eu lieu</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. ለማይጎበኙ ምክንያት  </t>
+  </si>
+  <si>
     <t>reasonOther</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>2.2. Veuillez préciser la raison pour laquelle vous n'avez pas été visité.</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. ለማይጎበኙ ምክንያቱን ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${reason} = 'OTHER'</t>
   </si>
   <si>
@@ -208,6 +229,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>Date de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -232,18 +259,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ </t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -259,6 +295,9 @@
     <t>Non disponible aujourd'hui</t>
   </si>
   <si>
+    <t xml:space="preserve">እ.ኤ.አ. ዛሬ አልተገኘም  </t>
+  </si>
+  <si>
     <t>UNAVAILABLE_ROUND</t>
   </si>
   <si>
@@ -271,6 +310,9 @@
     <t>Non disponible pour ce tour (temporairement absent, en raison d'études, de travail, ect.)</t>
   </si>
   <si>
+    <t xml:space="preserve">በዚህ ዙር አልተገኘም (በግልጽ አካባቢ ውጭ ላይ – ለትምህርት፣ ለስራ)  </t>
+  </si>
+  <si>
     <t>UNWILLING</t>
   </si>
   <si>
@@ -283,6 +325,9 @@
     <t>Ne souhaite pas participer à ce tour</t>
   </si>
   <si>
+    <t xml:space="preserve">በዚህ ዙር ለመሳተፍ አልፈቀደም  </t>
+  </si>
+  <si>
     <t>HOSPITALIZED</t>
   </si>
   <si>
@@ -295,6 +340,9 @@
     <t>Hospitalisé</t>
   </si>
   <si>
+    <t xml:space="preserve">በሆስፒታል ውስጥ ነው  </t>
+  </si>
+  <si>
     <t>RELOCATED</t>
   </si>
   <si>
@@ -307,6 +355,9 @@
     <t>A émigré en dehors de la zone d'étude</t>
   </si>
   <si>
+    <t xml:space="preserve">በቋሚነት ከምርምር አካባቢ ወጥቷል  </t>
+  </si>
+  <si>
     <t>WITHDREW</t>
   </si>
   <si>
@@ -319,6 +370,9 @@
     <t>Rejeté/retiré le consentement</t>
   </si>
   <si>
+    <t xml:space="preserve">እስቲ እንዳይቀጥል ስለማይፈልግ ያሳወቀ  </t>
+  </si>
+  <si>
     <t>DEAD</t>
   </si>
   <si>
@@ -331,6 +385,9 @@
     <t>Décédé</t>
   </si>
   <si>
+    <t xml:space="preserve">ሞቷል/ሞቶአል  </t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -343,6 +400,9 @@
     <t>Autre</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ  </t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -355,6 +415,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawIncompleteVisit</t>
   </si>
   <si>
@@ -365,6 +428,9 @@
   </si>
   <si>
     <t>Formulaire de Visite Incomplet</t>
+  </si>
+  <si>
+    <t>ያልተሟላ የጉብኝት ቅፅ</t>
   </si>
 </sst>
 </file>
@@ -372,9 +438,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -412,9 +478,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,17 +536,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,6 +568,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -464,66 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -533,15 +593,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,67 +639,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,115 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,20 +910,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,26 +940,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,6 +960,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,153 +1001,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,12 +1155,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1108,10 +1175,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1133,13 +1200,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1461,10 +1541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1476,447 +1556,488 @@
     <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="10" width="50.1809523809524" customWidth="1"/>
-    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
-    <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5428571428571" customWidth="1"/>
-    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="50.1809523809524" customWidth="1"/>
+    <col min="10" max="10" width="60.6190476190476" customWidth="1"/>
+    <col min="11" max="11" width="37.1047619047619" customWidth="1"/>
+    <col min="12" max="12" width="21.7238095238095" customWidth="1"/>
+    <col min="13" max="13" width="13.8190476190476" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="16.5428571428571" customWidth="1"/>
+    <col min="17" max="17" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="b">
+      <c r="O2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="26"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1"/>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2"/>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1"/>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2"/>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2"/>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" t="b">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2"/>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" t="b">
+        <v>49</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" t="b">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:14">
-      <c r="A8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="10" t="b">
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:15">
+      <c r="A8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="10" t="b">
+      <c r="O8" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:14">
-      <c r="A9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="11" t="s">
+    <row r="9" s="12" customFormat="1" spans="1:15">
+      <c r="A9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="11" t="b">
+      <c r="D9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="11" t="b">
+      <c r="O9" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="b">
+    <row r="10" spans="1:18">
+      <c r="A10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11" t="b">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="b">
+    <row r="11" spans="1:18">
+      <c r="A11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11" t="b">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" spans="1:17">
-      <c r="A12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17" t="b">
+    <row r="12" s="13" customFormat="1" spans="1:18">
+      <c r="A12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17" t="b">
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1928,27 +2049,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="79.4571428571429" customWidth="1"/>
-    <col min="5" max="5" width="48.3619047619048" customWidth="1"/>
+    <col min="4" max="4" width="69.3142857142857" customWidth="1"/>
+    <col min="5" max="5" width="71.0476190476191" customWidth="1"/>
+    <col min="6" max="6" width="48.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1956,166 +2078,193 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="F3" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F5" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2127,46 +2276,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.1809523809524" customWidth="1"/>
     <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
     <col min="3" max="3" width="27.8190476190476" customWidth="1"/>
-    <col min="4" max="4" width="30.5428571428571" customWidth="1"/>
+    <col min="4" max="4" width="30.5428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.0571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
